--- a/projects/tRNAseq_third-gen/data/BC_split/index-pair_stats.xlsx
+++ b/projects/tRNAseq_third-gen/data/BC_split/index-pair_stats.xlsx
@@ -531,16 +531,16 @@
         <v>96.06999999999999</v>
       </c>
       <c r="K2">
-        <v>8917</v>
+        <v>8924</v>
       </c>
       <c r="L2">
-        <v>690</v>
+        <v>683</v>
       </c>
       <c r="M2">
         <v>9607</v>
       </c>
       <c r="N2">
-        <v>92.81773706672219</v>
+        <v>92.89060060372645</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -575,16 +575,16 @@
         <v>96.08</v>
       </c>
       <c r="K3">
-        <v>8925</v>
+        <v>8924</v>
       </c>
       <c r="L3">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="M3">
         <v>9608</v>
       </c>
       <c r="N3">
-        <v>92.89134054954205</v>
+        <v>92.88093255620316</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -619,16 +619,16 @@
         <v>96.09</v>
       </c>
       <c r="K4">
-        <v>8922</v>
+        <v>8932</v>
       </c>
       <c r="L4">
-        <v>687</v>
+        <v>677</v>
       </c>
       <c r="M4">
         <v>9609</v>
       </c>
       <c r="N4">
-        <v>92.85045270059319</v>
+        <v>92.95452180247685</v>
       </c>
     </row>
   </sheetData>

--- a/projects/tRNAseq_third-gen/data/BC_split/index-pair_stats.xlsx
+++ b/projects/tRNAseq_third-gen/data/BC_split/index-pair_stats.xlsx
@@ -525,22 +525,22 @@
         <v>10000</v>
       </c>
       <c r="I2">
-        <v>9607</v>
+        <v>9685</v>
       </c>
       <c r="J2">
-        <v>96.06999999999999</v>
+        <v>96.85000000000001</v>
       </c>
       <c r="K2">
-        <v>8924</v>
+        <v>9017</v>
       </c>
       <c r="L2">
-        <v>683</v>
+        <v>668</v>
       </c>
       <c r="M2">
-        <v>9607</v>
+        <v>9685</v>
       </c>
       <c r="N2">
-        <v>92.89060060372645</v>
+        <v>93.10273618998451</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -569,22 +569,22 @@
         <v>10000</v>
       </c>
       <c r="I3">
-        <v>9608</v>
+        <v>9748</v>
       </c>
       <c r="J3">
-        <v>96.08</v>
+        <v>97.48</v>
       </c>
       <c r="K3">
-        <v>8924</v>
+        <v>9123</v>
       </c>
       <c r="L3">
-        <v>684</v>
+        <v>625</v>
       </c>
       <c r="M3">
-        <v>9608</v>
+        <v>9748</v>
       </c>
       <c r="N3">
-        <v>92.88093255620316</v>
+        <v>93.58842839556833</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -619,16 +619,16 @@
         <v>96.09</v>
       </c>
       <c r="K4">
-        <v>8932</v>
+        <v>8922</v>
       </c>
       <c r="L4">
-        <v>677</v>
+        <v>687</v>
       </c>
       <c r="M4">
         <v>9609</v>
       </c>
       <c r="N4">
-        <v>92.95452180247685</v>
+        <v>92.85045270059319</v>
       </c>
     </row>
   </sheetData>

--- a/projects/tRNAseq_third-gen/data/BC_split/index-pair_stats.xlsx
+++ b/projects/tRNAseq_third-gen/data/BC_split/index-pair_stats.xlsx
@@ -525,22 +525,22 @@
         <v>10000</v>
       </c>
       <c r="I2">
-        <v>9685</v>
+        <v>9516</v>
       </c>
       <c r="J2">
-        <v>96.85000000000001</v>
+        <v>95.16</v>
       </c>
       <c r="K2">
-        <v>9017</v>
+        <v>8864</v>
       </c>
       <c r="L2">
-        <v>668</v>
+        <v>652</v>
       </c>
       <c r="M2">
-        <v>9685</v>
+        <v>9516</v>
       </c>
       <c r="N2">
-        <v>93.10273618998451</v>
+        <v>93.14838167297184</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -569,22 +569,22 @@
         <v>10000</v>
       </c>
       <c r="I3">
-        <v>9748</v>
+        <v>9634</v>
       </c>
       <c r="J3">
-        <v>97.48</v>
+        <v>96.34</v>
       </c>
       <c r="K3">
-        <v>9123</v>
+        <v>9021</v>
       </c>
       <c r="L3">
-        <v>625</v>
+        <v>613</v>
       </c>
       <c r="M3">
-        <v>9748</v>
+        <v>9634</v>
       </c>
       <c r="N3">
-        <v>93.58842839556833</v>
+        <v>93.63711853850944</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -613,22 +613,22 @@
         <v>10000</v>
       </c>
       <c r="I4">
-        <v>9609</v>
+        <v>9420</v>
       </c>
       <c r="J4">
-        <v>96.09</v>
+        <v>94.19999999999999</v>
       </c>
       <c r="K4">
-        <v>8922</v>
+        <v>8751</v>
       </c>
       <c r="L4">
-        <v>687</v>
+        <v>669</v>
       </c>
       <c r="M4">
-        <v>9609</v>
+        <v>9420</v>
       </c>
       <c r="N4">
-        <v>92.85045270059319</v>
+        <v>92.89808917197452</v>
       </c>
     </row>
   </sheetData>

--- a/projects/tRNAseq_third-gen/data/BC_split/index-pair_stats.xlsx
+++ b/projects/tRNAseq_third-gen/data/BC_split/index-pair_stats.xlsx
@@ -575,16 +575,16 @@
         <v>96.34</v>
       </c>
       <c r="K3">
-        <v>9021</v>
+        <v>9024</v>
       </c>
       <c r="L3">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="M3">
         <v>9634</v>
       </c>
       <c r="N3">
-        <v>93.63711853850944</v>
+        <v>93.66825825202409</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -619,16 +619,16 @@
         <v>94.19999999999999</v>
       </c>
       <c r="K4">
-        <v>8751</v>
+        <v>8756</v>
       </c>
       <c r="L4">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="M4">
         <v>9420</v>
       </c>
       <c r="N4">
-        <v>92.89808917197452</v>
+        <v>92.95116772823779</v>
       </c>
     </row>
   </sheetData>

--- a/projects/tRNAseq_third-gen/data/BC_split/index-pair_stats.xlsx
+++ b/projects/tRNAseq_third-gen/data/BC_split/index-pair_stats.xlsx
@@ -531,16 +531,16 @@
         <v>95.16</v>
       </c>
       <c r="K2">
-        <v>8864</v>
+        <v>8857</v>
       </c>
       <c r="L2">
-        <v>652</v>
+        <v>659</v>
       </c>
       <c r="M2">
         <v>9516</v>
       </c>
       <c r="N2">
-        <v>93.14838167297184</v>
+        <v>93.07482135350988</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -575,16 +575,16 @@
         <v>96.34</v>
       </c>
       <c r="K3">
-        <v>9024</v>
+        <v>9017</v>
       </c>
       <c r="L3">
-        <v>610</v>
+        <v>617</v>
       </c>
       <c r="M3">
         <v>9634</v>
       </c>
       <c r="N3">
-        <v>93.66825825202409</v>
+        <v>93.59559892048993</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -619,16 +619,16 @@
         <v>94.19999999999999</v>
       </c>
       <c r="K4">
-        <v>8756</v>
+        <v>8750</v>
       </c>
       <c r="L4">
-        <v>664</v>
+        <v>670</v>
       </c>
       <c r="M4">
         <v>9420</v>
       </c>
       <c r="N4">
-        <v>92.95116772823779</v>
+        <v>92.88747346072186</v>
       </c>
     </row>
   </sheetData>
